--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_16.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459877.8621130647</v>
+        <v>437136.318553314</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1065068.56629979</v>
+        <v>1065068.566299791</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5858845.959246904</v>
+        <v>5858845.959246905</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>68.13446400006633</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>123.4585217040759</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,64 +1142,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>85.72024486005427</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>69.03881051849282</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.2601039581627</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>114.1493905485481</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>85.45641842452424</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>71.30468686766748</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>94.25736106477143</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.237263525796244</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>205.0481221176458</v>
@@ -1658,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>25.77200663348665</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>144.1528130697059</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H15" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>86.80307722268741</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>84.53477354965933</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>79.32511041905943</v>
+        <v>71.30468686766748</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K16" t="n">
         <v>14.93225064571201</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S18" t="n">
-        <v>16.58392822138693</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>190.4888033224266</v>
       </c>
     </row>
     <row r="19">
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>13.46550985000068</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>155.8903435161421</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
-        <v>127.0354994972995</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>77.43156179123795</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,13 +2208,13 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8611009721718</v>
+        <v>181.6007001279602</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C23" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>243.2386572690349</v>
       </c>
       <c r="E23" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F23" t="n">
-        <v>243.2386572690346</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T24" t="n">
-        <v>175.7569470849743</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>40.90417200183943</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2561,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G26" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>222.4795457699687</v>
       </c>
       <c r="U26" t="n">
-        <v>20.75911149906607</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W26" t="n">
-        <v>276.1565137023554</v>
+        <v>20.75911149906596</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>38.14971556893606</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>30.61217416357467</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.6773952840984507</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,20 +2789,20 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="C29" t="n">
+      <c r="F29" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>102.2133755837552</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>243.2386572690345</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>18.32531763251863</v>
       </c>
       <c r="G30" t="n">
         <v>137.2681884137393</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>78.73685479946174</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3038,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>276.1565137023555</v>
+        <v>38.19053515138887</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X32" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>77.74291268765295</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>155.5935060462579</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>94.25736106477139</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D35" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>108.5352083273463</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="X35" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3363,7 +3363,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>29.78025283584497</v>
+        <v>218.753624389501</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E38" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G38" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>243.2386572690347</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.2681884137393</v>
@@ -3600,7 +3600,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I39" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>119.436463572939</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>71.15939628646451</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.6773952840984366</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,22 +3740,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H41" t="n">
-        <v>89.79484706585313</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3822,19 +3822,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>140.9119344454324</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.51572092966538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C44" t="n">
-        <v>71.2601039581627</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>71.2601039581627</v>
       </c>
       <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>146.4771114056544</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I45" t="n">
-        <v>86.80307722268739</v>
+        <v>47.0206876392501</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.6773952840983803</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D2" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="E2" t="n">
+        <v>962.2293816994886</v>
+      </c>
+      <c r="F2" t="n">
+        <v>718.7806050553886</v>
+      </c>
+      <c r="G2" t="n">
         <v>475.3318284112885</v>
-      </c>
-      <c r="C2" t="n">
-        <v>231.8830517671884</v>
-      </c>
-      <c r="D2" t="n">
-        <v>231.8830517671884</v>
-      </c>
-      <c r="E2" t="n">
-        <v>231.8830517671884</v>
-      </c>
-      <c r="F2" t="n">
-        <v>231.8830517671884</v>
-      </c>
-      <c r="G2" t="n">
-        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
         <v>231.8830517671884</v>
@@ -4367,13 +4367,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4413,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4437,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W3" t="n">
-        <v>485.4562706347935</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X3" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E5" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4592,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.215552771464</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>179.1575958149999</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>179.1575958149999</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>179.1575958149999</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>839.3515780317716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>839.3515780317716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>611.1279597681606</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>375.9758515364179</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>375.9758515364179</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>375.9758515364179</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y6" t="n">
-        <v>168.215552771464</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="7">
@@ -4741,25 +4741,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4887,10 +4887,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
         <v>725.4530095217538</v>
@@ -4911,22 +4911,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.3209832697344</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>666.0973650061235</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>430.9452567743808</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="10">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C11" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D11" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D11" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E11" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
         <v>19.28114311021272</v>
@@ -5042,16 +5042,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>140.0259473578926</v>
+        <v>119.9780382516245</v>
       </c>
       <c r="L11" t="n">
-        <v>342.0971815553111</v>
+        <v>322.049272449043</v>
       </c>
       <c r="M11" t="n">
-        <v>580.7013275441935</v>
+        <v>560.6534184379254</v>
       </c>
       <c r="N11" t="n">
-        <v>811.4259675091521</v>
+        <v>791.3780584028841</v>
       </c>
       <c r="O11" t="n">
         <v>964.0571555106362</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>821.6073760305561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>640.669716568258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>481.4322615628025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>334.8977035896875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>219.5952888941843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>106.9610190927253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>25.58776342720964</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>162.9876251674723</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>401.5917711563548</v>
       </c>
       <c r="M12" t="n">
-        <v>257.8852890990952</v>
+        <v>528.5688895244652</v>
       </c>
       <c r="N12" t="n">
-        <v>496.4894350879777</v>
+        <v>767.1730355133477</v>
       </c>
       <c r="O12" t="n">
-        <v>735.0935810768601</v>
+        <v>767.1730355133477</v>
       </c>
       <c r="P12" t="n">
-        <v>931.9777010741486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5145,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>792.0531427618148</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>792.0531427618148</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>792.0531427618148</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>556.9010345300721</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>313.4522578859721</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>105.6007576804392</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>124.1564027871929</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>34.36422457052788</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>55.89051927895143</v>
+        <v>55.89051927895144</v>
       </c>
       <c r="M13" t="n">
         <v>104.8790965300929</v>
@@ -5218,31 +5218,31 @@
         <v>196.1813390171601</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>196.1813390171601</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>226.400458380562</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>226.400458380562</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>226.400458380562</v>
       </c>
       <c r="E14" t="n">
-        <v>956.7467883128622</v>
+        <v>226.400458380562</v>
       </c>
       <c r="F14" t="n">
-        <v>713.2980116687622</v>
+        <v>226.400458380562</v>
       </c>
       <c r="G14" t="n">
-        <v>469.8492350246621</v>
+        <v>226.400458380562</v>
       </c>
       <c r="H14" t="n">
         <v>226.400458380562</v>
@@ -5291,10 +5291,10 @@
         <v>811.4259675091521</v>
       </c>
       <c r="O14" t="n">
-        <v>849.1931257913208</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P14" t="n">
-        <v>958.8963571931456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
         <v>964.0571555106362</v>
@@ -5306,22 +5306,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>739.3303416015769</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>495.8815649574769</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>252.4327883133768</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>252.4327883133768</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>252.4327883133768</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>226.400458380562</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>504.7845826387531</v>
+        <v>699.3965216214979</v>
       </c>
       <c r="C15" t="n">
-        <v>504.7845826387531</v>
+        <v>553.7876195308859</v>
       </c>
       <c r="D15" t="n">
-        <v>504.7845826387531</v>
+        <v>404.8532098696346</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7845826387531</v>
+        <v>245.6157548641791</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2500246656381</v>
+        <v>245.6157548641791</v>
       </c>
       <c r="G15" t="n">
-        <v>219.5952888941843</v>
+        <v>106.9610190927253</v>
       </c>
       <c r="H15" t="n">
         <v>106.9610190927253</v>
@@ -5355,52 +5355,52 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>25.58776342720963</v>
       </c>
       <c r="K15" t="n">
-        <v>156.6810048504754</v>
+        <v>162.9876251674723</v>
       </c>
       <c r="L15" t="n">
-        <v>395.2851508393578</v>
+        <v>401.5917711563548</v>
       </c>
       <c r="M15" t="n">
-        <v>633.8892968282403</v>
+        <v>449.6548387068933</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>449.6548387068933</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>688.2589846957758</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>885.1431046930642</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>878.6684953594652</v>
+        <v>867.611858641566</v>
       </c>
       <c r="S15" t="n">
-        <v>706.6644826106439</v>
+        <v>867.611858641566</v>
       </c>
       <c r="T15" t="n">
-        <v>504.7845826387531</v>
+        <v>867.611858641566</v>
       </c>
       <c r="U15" t="n">
-        <v>504.7845826387531</v>
+        <v>867.611858641566</v>
       </c>
       <c r="V15" t="n">
-        <v>504.7845826387531</v>
+        <v>867.611858641566</v>
       </c>
       <c r="W15" t="n">
-        <v>504.7845826387531</v>
+        <v>867.611858641566</v>
       </c>
       <c r="X15" t="n">
-        <v>504.7845826387531</v>
+        <v>867.611858641566</v>
       </c>
       <c r="Y15" t="n">
-        <v>504.7845826387531</v>
+        <v>867.611858641566</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="C16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="D16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="E16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="F16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="G16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="H16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="I16" t="n">
-        <v>34.36422457052788</v>
+        <v>124.1564027871929</v>
       </c>
       <c r="J16" t="n">
         <v>34.36422457052788</v>
@@ -5455,31 +5455,31 @@
         <v>196.1813390171601</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="R16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="S16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="T16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="U16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="V16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="W16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="X16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="Y16" t="n">
-        <v>114.490598731194</v>
+        <v>196.1813390171601</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>825.6800813726992</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="C17" t="n">
-        <v>825.6800813726992</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D17" t="n">
-        <v>825.6800813726992</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E17" t="n">
-        <v>546.7341079359765</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F17" t="n">
-        <v>267.7881344992537</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G17" t="n">
         <v>22.09252109618843</v>
@@ -5555,10 +5555,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="X17" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="Y17" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>615.4536795074641</v>
+        <v>815.7678252914357</v>
       </c>
       <c r="C18" t="n">
-        <v>615.4536795074641</v>
+        <v>815.7678252914357</v>
       </c>
       <c r="D18" t="n">
-        <v>466.5192698462128</v>
+        <v>666.8334156301844</v>
       </c>
       <c r="E18" t="n">
-        <v>307.2818148407573</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="F18" t="n">
-        <v>160.7472568676423</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G18" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H18" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I18" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J18" t="n">
-        <v>28.39914141318535</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K18" t="n">
         <v>165.799003153448</v>
@@ -5601,13 +5601,13 @@
         <v>411.954469746149</v>
       </c>
       <c r="M18" t="n">
-        <v>411.954469746149</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N18" t="n">
-        <v>562.3310704112777</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="O18" t="n">
-        <v>828.8278839945615</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P18" t="n">
         <v>1025.71200399185</v>
@@ -5616,28 +5616,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R18" t="n">
-        <v>1008.180757940352</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S18" t="n">
-        <v>991.4293152924861</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T18" t="n">
-        <v>991.4293152924861</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="U18" t="n">
-        <v>991.4293152924861</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="V18" t="n">
-        <v>991.4293152924861</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="W18" t="n">
-        <v>991.4293152924861</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="X18" t="n">
-        <v>991.4293152924861</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="Y18" t="n">
-        <v>783.6690165275322</v>
+        <v>815.7678252914357</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L19" t="n">
         <v>58.70189726492714</v>
@@ -5698,25 +5698,25 @@
         <v>198.9927170031358</v>
       </c>
       <c r="S19" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T19" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="U19" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="V19" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="W19" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="X19" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>579.9844679696339</v>
+        <v>179.557514546837</v>
       </c>
       <c r="C20" t="n">
-        <v>579.9844679696339</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D20" t="n">
-        <v>579.9844679696339</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E20" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F20" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I20" t="n">
         <v>22.09252109618843</v>
@@ -5762,10 +5762,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O20" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P20" t="n">
         <v>1099.465256491931</v>
@@ -5774,28 +5774,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R20" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S20" t="n">
-        <v>833.8575889684332</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T20" t="n">
-        <v>833.8575889684332</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="U20" t="n">
-        <v>579.9844679696339</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="V20" t="n">
-        <v>579.9844679696339</v>
+        <v>458.5034879835596</v>
       </c>
       <c r="W20" t="n">
-        <v>579.9844679696339</v>
+        <v>179.557514546837</v>
       </c>
       <c r="X20" t="n">
-        <v>579.9844679696339</v>
+        <v>179.557514546837</v>
       </c>
       <c r="Y20" t="n">
-        <v>579.9844679696339</v>
+        <v>179.557514546837</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>406.0782328537872</v>
+        <v>656.5303702859801</v>
       </c>
       <c r="C21" t="n">
-        <v>406.0782328537872</v>
+        <v>656.5303702859801</v>
       </c>
       <c r="D21" t="n">
-        <v>406.0782328537872</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="E21" t="n">
-        <v>246.8407778483317</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="F21" t="n">
-        <v>100.3062198752167</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G21" t="n">
-        <v>22.09252109618844</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K21" t="n">
-        <v>94.45522409818579</v>
+        <v>42.78065525324462</v>
       </c>
       <c r="L21" t="n">
-        <v>94.45522409818579</v>
+        <v>288.9361218459456</v>
       </c>
       <c r="M21" t="n">
-        <v>367.8501726635177</v>
+        <v>288.9361218459456</v>
       </c>
       <c r="N21" t="n">
-        <v>641.2451212288496</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="O21" t="n">
-        <v>907.7419348121334</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P21" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q21" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R21" t="n">
-        <v>1008.180757940352</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S21" t="n">
-        <v>836.1767451915302</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="T21" t="n">
-        <v>634.2968452196395</v>
+        <v>824.7457073060482</v>
       </c>
       <c r="U21" t="n">
-        <v>406.0782328537872</v>
+        <v>824.7457073060482</v>
       </c>
       <c r="V21" t="n">
-        <v>406.0782328537872</v>
+        <v>824.7457073060482</v>
       </c>
       <c r="W21" t="n">
-        <v>406.0782328537872</v>
+        <v>824.7457073060482</v>
       </c>
       <c r="X21" t="n">
-        <v>406.0782328537872</v>
+        <v>824.7457073060482</v>
       </c>
       <c r="Y21" t="n">
-        <v>406.0782328537872</v>
+        <v>824.7457073060482</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L22" t="n">
         <v>58.70189726492714</v>
@@ -5944,16 +5944,16 @@
         <v>198.9927170031358</v>
       </c>
       <c r="V22" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>825.6800813726992</v>
+        <v>825.6800813726993</v>
       </c>
       <c r="C23" t="n">
-        <v>546.7341079359765</v>
+        <v>825.6800813726993</v>
       </c>
       <c r="D23" t="n">
-        <v>546.7341079359765</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E23" t="n">
-        <v>267.7881344992537</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F23" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G23" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H23" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I23" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J23" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K23" t="n">
         <v>142.8373253438683</v>
@@ -6023,16 +6023,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V23" t="n">
-        <v>825.6800813726992</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W23" t="n">
-        <v>825.6800813726992</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X23" t="n">
-        <v>825.6800813726992</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y23" t="n">
-        <v>825.6800813726992</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22.09252109618844</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C24" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D24" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E24" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F24" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G24" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H24" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I24" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J24" t="n">
-        <v>28.39914141318535</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K24" t="n">
-        <v>28.39914141318535</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L24" t="n">
-        <v>274.5546080058863</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M24" t="n">
-        <v>547.9495565712182</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N24" t="n">
-        <v>821.3445051365501</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="O24" t="n">
-        <v>1087.841318719834</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P24" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q24" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R24" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940351</v>
       </c>
       <c r="S24" t="n">
-        <v>1104.626054809422</v>
+        <v>836.17674519153</v>
       </c>
       <c r="T24" t="n">
-        <v>927.0937850266196</v>
+        <v>634.2968452196393</v>
       </c>
       <c r="U24" t="n">
-        <v>927.0937850266196</v>
+        <v>406.078232853787</v>
       </c>
       <c r="V24" t="n">
-        <v>691.9416767948769</v>
+        <v>364.7608873973835</v>
       </c>
       <c r="W24" t="n">
-        <v>437.7043200666752</v>
+        <v>364.7608873973835</v>
       </c>
       <c r="X24" t="n">
-        <v>229.8528198611424</v>
+        <v>364.7608873973835</v>
       </c>
       <c r="Y24" t="n">
-        <v>22.09252109618844</v>
+        <v>364.7608873973835</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L25" t="n">
         <v>58.70189726492714</v>
@@ -6178,19 +6178,19 @@
         <v>198.9927170031358</v>
       </c>
       <c r="U25" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V25" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>301.0384945329111</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C26" t="n">
-        <v>301.0384945329111</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D26" t="n">
-        <v>301.0384945329111</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E26" t="n">
         <v>301.0384945329111</v>
       </c>
       <c r="F26" t="n">
-        <v>301.0384945329111</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G26" t="n">
         <v>22.09252109618843</v>
@@ -6236,10 +6236,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N26" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O26" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P26" t="n">
         <v>1099.465256491931</v>
@@ -6254,13 +6254,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T26" t="n">
-        <v>879.8992409003627</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="U26" t="n">
-        <v>858.9304414063565</v>
+        <v>879.8992409003624</v>
       </c>
       <c r="V26" t="n">
-        <v>858.9304414063565</v>
+        <v>600.9532674636398</v>
       </c>
       <c r="W26" t="n">
         <v>579.9844679696338</v>
@@ -6269,7 +6269,7 @@
         <v>579.9844679696338</v>
       </c>
       <c r="Y26" t="n">
-        <v>301.0384945329111</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>682.173361061152</v>
+        <v>407.4762910845236</v>
       </c>
       <c r="C27" t="n">
-        <v>507.720331780025</v>
+        <v>407.4762910845236</v>
       </c>
       <c r="D27" t="n">
-        <v>358.7859221187738</v>
+        <v>407.4762910845236</v>
       </c>
       <c r="E27" t="n">
-        <v>199.5484671133183</v>
+        <v>368.941224853275</v>
       </c>
       <c r="F27" t="n">
-        <v>53.01390914020325</v>
+        <v>222.40666688016</v>
       </c>
       <c r="G27" t="n">
-        <v>53.01390914020325</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H27" t="n">
-        <v>22.09252109618843</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I27" t="n">
         <v>22.09252109618843</v>
@@ -6306,19 +6306,19 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K27" t="n">
-        <v>45.18387750277316</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L27" t="n">
-        <v>291.3393440954741</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M27" t="n">
-        <v>564.734292660806</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N27" t="n">
-        <v>838.1292412261379</v>
+        <v>641.2451212288494</v>
       </c>
       <c r="O27" t="n">
-        <v>1104.626054809422</v>
+        <v>907.7419348121332</v>
       </c>
       <c r="P27" t="n">
         <v>1104.626054809422</v>
@@ -6339,16 +6339,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V27" t="n">
-        <v>1104.626054809422</v>
+        <v>869.473946577679</v>
       </c>
       <c r="W27" t="n">
-        <v>850.3886980812201</v>
+        <v>615.2365898494775</v>
       </c>
       <c r="X27" t="n">
-        <v>850.3886980812201</v>
+        <v>615.2365898494775</v>
       </c>
       <c r="Y27" t="n">
-        <v>850.3886980812201</v>
+        <v>407.4762910845236</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="C28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="D28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="E28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="F28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="G28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="H28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="I28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="J28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="K28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="L28" t="n">
-        <v>58.70189726492714</v>
+        <v>964.335235071213</v>
       </c>
       <c r="M28" t="n">
-        <v>107.6904745160686</v>
+        <v>1013.323812322354</v>
       </c>
       <c r="N28" t="n">
-        <v>160.9488293168851</v>
+        <v>1066.582167123171</v>
       </c>
       <c r="O28" t="n">
-        <v>194.1252445754622</v>
+        <v>1099.758582381748</v>
       </c>
       <c r="P28" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q28" t="n">
-        <v>198.9927170031358</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R28" t="n">
-        <v>22.77675875689394</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S28" t="n">
-        <v>22.77675875689394</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="T28" t="n">
-        <v>22.77675875689394</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="U28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="V28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="W28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="X28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="Y28" t="n">
-        <v>22.09252109618843</v>
+        <v>927.7258589024743</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>579.9844679696338</v>
+      </c>
+      <c r="C29" t="n">
+        <v>579.9844679696338</v>
+      </c>
+      <c r="D29" t="n">
+        <v>579.9844679696338</v>
+      </c>
+      <c r="E29" t="n">
         <v>301.0384945329111</v>
-      </c>
-      <c r="C29" t="n">
-        <v>22.09252109618843</v>
-      </c>
-      <c r="D29" t="n">
-        <v>22.09252109618843</v>
-      </c>
-      <c r="E29" t="n">
-        <v>22.09252109618843</v>
       </c>
       <c r="F29" t="n">
         <v>22.09252109618843</v>
@@ -6473,10 +6473,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N29" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O29" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P29" t="n">
         <v>1099.465256491931</v>
@@ -6485,25 +6485,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R29" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S29" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="T29" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="U29" t="n">
         <v>858.9304414063565</v>
       </c>
       <c r="V29" t="n">
-        <v>858.9304414063565</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="W29" t="n">
-        <v>858.9304414063565</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="X29" t="n">
-        <v>858.9304414063565</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y29" t="n">
         <v>579.9844679696338</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>615.4536795074641</v>
+        <v>179.2576787186712</v>
       </c>
       <c r="C30" t="n">
-        <v>615.4536795074641</v>
+        <v>179.2576787186712</v>
       </c>
       <c r="D30" t="n">
-        <v>466.5192698462128</v>
+        <v>179.2576787186712</v>
       </c>
       <c r="E30" t="n">
-        <v>307.2818148407573</v>
+        <v>179.2576787186712</v>
       </c>
       <c r="F30" t="n">
         <v>160.7472568676422</v>
@@ -6540,52 +6540,52 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J30" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K30" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L30" t="n">
-        <v>411.954469746149</v>
+        <v>94.45522409818568</v>
       </c>
       <c r="M30" t="n">
-        <v>562.3310704112774</v>
+        <v>367.8501726635175</v>
       </c>
       <c r="N30" t="n">
-        <v>562.3310704112774</v>
+        <v>641.2451212288494</v>
       </c>
       <c r="O30" t="n">
-        <v>828.8278839945613</v>
+        <v>907.7419348121332</v>
       </c>
       <c r="P30" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q30" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R30" t="n">
-        <v>1025.093878244309</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S30" t="n">
-        <v>1025.093878244309</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T30" t="n">
-        <v>823.213978272418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U30" t="n">
-        <v>823.213978272418</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V30" t="n">
-        <v>823.213978272418</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W30" t="n">
-        <v>823.213978272418</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="X30" t="n">
-        <v>823.213978272418</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="Y30" t="n">
-        <v>615.4536795074641</v>
+        <v>179.2576787186712</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L31" t="n">
-        <v>964.335235071213</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M31" t="n">
-        <v>1013.323812322354</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N31" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O31" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P31" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q31" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R31" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S31" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="T31" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="U31" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y31" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>546.7341079359765</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="C32" t="n">
-        <v>546.7341079359765</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="D32" t="n">
-        <v>546.7341079359765</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="E32" t="n">
-        <v>546.7341079359765</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="F32" t="n">
-        <v>301.0384945329112</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="G32" t="n">
-        <v>301.0384945329112</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="H32" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I32" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J32" t="n">
         <v>22.09252109618843</v>
@@ -6737,13 +6737,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W32" t="n">
-        <v>825.6800813726992</v>
+        <v>825.6800813726991</v>
       </c>
       <c r="X32" t="n">
         <v>546.7341079359765</v>
       </c>
       <c r="Y32" t="n">
-        <v>546.7341079359765</v>
+        <v>267.7881344992538</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>667.9614081714622</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C33" t="n">
-        <v>667.9614081714622</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D33" t="n">
-        <v>519.0269985102109</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E33" t="n">
-        <v>359.7895435047554</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F33" t="n">
-        <v>213.2549855316404</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G33" t="n">
-        <v>213.2549855316404</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H33" t="n">
-        <v>100.6207157301813</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I33" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J33" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K33" t="n">
-        <v>28.39914141318535</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L33" t="n">
-        <v>274.5546080058863</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="M33" t="n">
-        <v>547.9495565712182</v>
+        <v>288.9361218459456</v>
       </c>
       <c r="N33" t="n">
-        <v>821.3445051365501</v>
+        <v>562.3310704112774</v>
       </c>
       <c r="O33" t="n">
-        <v>1087.841318719834</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P33" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q33" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R33" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S33" t="n">
-        <v>836.1767451915302</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T33" t="n">
-        <v>836.1767451915302</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U33" t="n">
-        <v>836.1767451915302</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V33" t="n">
-        <v>836.1767451915302</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W33" t="n">
-        <v>836.1767451915302</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="X33" t="n">
-        <v>836.1767451915302</v>
+        <v>229.8528198611423</v>
       </c>
       <c r="Y33" t="n">
-        <v>836.1767451915302</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L34" t="n">
-        <v>964.3352350712132</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M34" t="n">
-        <v>1013.323812322355</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N34" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O34" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P34" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q34" t="n">
-        <v>1022.935314523456</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R34" t="n">
-        <v>1022.935314523456</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S34" t="n">
-        <v>1022.935314523456</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T34" t="n">
-        <v>1022.935314523456</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U34" t="n">
-        <v>1022.935314523456</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="V34" t="n">
-        <v>1022.935314523456</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>267.7881344992537</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="C35" t="n">
-        <v>267.7881344992537</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="D35" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="E35" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="F35" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="G35" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H35" t="n">
-        <v>22.09252109618844</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I35" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J35" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K35" t="n">
-        <v>142.8373253438685</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L35" t="n">
-        <v>344.908559541287</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M35" t="n">
-        <v>586.3582880173958</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N35" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O35" t="n">
-        <v>989.7620250901065</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P35" t="n">
         <v>1099.465256491931</v>
@@ -6962,25 +6962,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S35" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T35" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="U35" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="V35" t="n">
-        <v>1104.626054809422</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="W35" t="n">
-        <v>1104.626054809422</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="X35" t="n">
-        <v>825.6800813726992</v>
+        <v>508.1578098032604</v>
       </c>
       <c r="Y35" t="n">
-        <v>546.7341079359765</v>
+        <v>508.1578098032604</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>902.54097859005</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="C36" t="n">
-        <v>728.087949308923</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="D36" t="n">
-        <v>579.1535396476718</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="E36" t="n">
-        <v>419.9160846422163</v>
+        <v>507.5959606247288</v>
       </c>
       <c r="F36" t="n">
-        <v>273.3815266691013</v>
+        <v>361.0614026516138</v>
       </c>
       <c r="G36" t="n">
-        <v>134.7267908976475</v>
+        <v>222.40666688016</v>
       </c>
       <c r="H36" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I36" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J36" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K36" t="n">
-        <v>159.4923828364511</v>
+        <v>45.18387750277316</v>
       </c>
       <c r="L36" t="n">
-        <v>212.4252932779024</v>
+        <v>291.3393440954741</v>
       </c>
       <c r="M36" t="n">
-        <v>485.8202418432343</v>
+        <v>564.734292660806</v>
       </c>
       <c r="N36" t="n">
-        <v>759.2151904085662</v>
+        <v>838.1292412261379</v>
       </c>
       <c r="O36" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P36" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q36" t="n">
         <v>1104.626054809422</v>
@@ -7041,25 +7041,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S36" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T36" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U36" t="n">
-        <v>902.54097859005</v>
+        <v>883.6627978503298</v>
       </c>
       <c r="V36" t="n">
-        <v>902.54097859005</v>
+        <v>883.6627978503298</v>
       </c>
       <c r="W36" t="n">
-        <v>902.54097859005</v>
+        <v>883.6627978503298</v>
       </c>
       <c r="X36" t="n">
-        <v>902.54097859005</v>
+        <v>675.8112976447969</v>
       </c>
       <c r="Y36" t="n">
-        <v>902.54097859005</v>
+        <v>675.8112976447969</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C37" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D37" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E37" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F37" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G37" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H37" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I37" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J37" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K37" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L37" t="n">
-        <v>964.3352350712132</v>
+        <v>58.70189726492714</v>
       </c>
       <c r="M37" t="n">
-        <v>1013.323812322355</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N37" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O37" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W37" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X37" t="n">
-        <v>927.7258589024746</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y37" t="n">
-        <v>927.7258589024746</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="D38" t="n">
+        <v>825.6800813726991</v>
+      </c>
+      <c r="E38" t="n">
+        <v>825.6800813726991</v>
+      </c>
+      <c r="F38" t="n">
         <v>546.7341079359765</v>
       </c>
-      <c r="C38" t="n">
-        <v>546.7341079359765</v>
-      </c>
-      <c r="D38" t="n">
-        <v>546.7341079359765</v>
-      </c>
-      <c r="E38" t="n">
-        <v>301.0384945329112</v>
-      </c>
-      <c r="F38" t="n">
-        <v>301.0384945329112</v>
-      </c>
       <c r="G38" t="n">
-        <v>22.09252109618844</v>
+        <v>267.7881344992538</v>
       </c>
       <c r="H38" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I38" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J38" t="n">
         <v>22.09252109618843</v>
@@ -7217,7 +7217,7 @@
         <v>1104.626054809422</v>
       </c>
       <c r="Y38" t="n">
-        <v>825.6800813726992</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>815.7678252914357</v>
+        <v>596.7689656114795</v>
       </c>
       <c r="C39" t="n">
-        <v>815.7678252914357</v>
+        <v>422.3159363303525</v>
       </c>
       <c r="D39" t="n">
-        <v>666.8334156301844</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="E39" t="n">
-        <v>507.5959606247288</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="F39" t="n">
-        <v>361.0614026516138</v>
+        <v>273.3815266691013</v>
       </c>
       <c r="G39" t="n">
-        <v>222.40666688016</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H39" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I39" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J39" t="n">
-        <v>28.39914141318535</v>
+        <v>28.39914141318534</v>
       </c>
       <c r="K39" t="n">
         <v>165.799003153448</v>
       </c>
       <c r="L39" t="n">
-        <v>212.4252932779024</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M39" t="n">
-        <v>485.8202418432343</v>
+        <v>685.3494183114808</v>
       </c>
       <c r="N39" t="n">
-        <v>759.2151904085662</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="O39" t="n">
-        <v>1025.71200399185</v>
+        <v>828.8278839945613</v>
       </c>
       <c r="P39" t="n">
         <v>1025.71200399185</v>
@@ -7284,19 +7284,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U39" t="n">
-        <v>983.9831623115037</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V39" t="n">
-        <v>983.9831623115037</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="W39" t="n">
-        <v>983.9831623115037</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="X39" t="n">
-        <v>983.9831623115037</v>
+        <v>804.5292643764335</v>
       </c>
       <c r="Y39" t="n">
-        <v>983.9831623115037</v>
+        <v>596.7689656114795</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L40" t="n">
         <v>58.70189726492714</v>
@@ -7351,31 +7351,31 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Q40" t="n">
-        <v>198.3084793424303</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R40" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S40" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T40" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U40" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="W40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y40" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>353.4317854773968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>353.4317854773968</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D41" t="n">
-        <v>353.4317854773968</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E41" t="n">
-        <v>353.4317854773968</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
-        <v>109.9830088332967</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G41" t="n">
-        <v>109.9830088332967</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7418,43 +7418,43 @@
         <v>221.3523773076312</v>
       </c>
       <c r="M41" t="n">
-        <v>459.9565232965137</v>
+        <v>450.9501870361007</v>
       </c>
       <c r="N41" t="n">
-        <v>690.6811632614723</v>
+        <v>681.6748270010593</v>
       </c>
       <c r="O41" t="n">
-        <v>863.3602603692244</v>
+        <v>854.3539241088114</v>
       </c>
       <c r="P41" t="n">
-        <v>958.8963571931456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>821.6073760305561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>821.6073760305561</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>596.8805621214968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>596.8805621214968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>596.8805621214968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>353.4317854773968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>353.4317854773968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>353.4317854773968</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>725.2765713229473</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>725.2765713229473</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>576.3421616616961</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>417.1047066562406</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>270.5701486831256</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>131.9154129116718</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7491,49 +7491,49 @@
         <v>25.58776342720963</v>
       </c>
       <c r="K42" t="n">
-        <v>25.58776342720963</v>
+        <v>162.9876251674723</v>
       </c>
       <c r="L42" t="n">
-        <v>264.1919094160921</v>
+        <v>401.5917711563548</v>
       </c>
       <c r="M42" t="n">
-        <v>502.7960554049745</v>
+        <v>401.5917711563548</v>
       </c>
       <c r="N42" t="n">
-        <v>502.7960554049745</v>
+        <v>528.5688895244652</v>
       </c>
       <c r="O42" t="n">
-        <v>741.4002013938571</v>
+        <v>767.1730355133477</v>
       </c>
       <c r="P42" t="n">
-        <v>938.2843213911456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>867.611858641566</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>867.611858641566</v>
       </c>
       <c r="T42" t="n">
-        <v>913.4938269565423</v>
+        <v>867.611858641566</v>
       </c>
       <c r="U42" t="n">
-        <v>913.4938269565423</v>
+        <v>725.2765713229473</v>
       </c>
       <c r="V42" t="n">
-        <v>678.3417187247995</v>
+        <v>725.2765713229473</v>
       </c>
       <c r="W42" t="n">
-        <v>434.8929420806995</v>
+        <v>725.2765713229473</v>
       </c>
       <c r="X42" t="n">
-        <v>227.0414418751666</v>
+        <v>725.2765713229473</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>725.2765713229473</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>937.2735990160247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>937.2735990160247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>823.7663357724276</v>
+        <v>55.89051927895143</v>
       </c>
       <c r="M43" t="n">
-        <v>872.7549130235691</v>
+        <v>104.8790965300929</v>
       </c>
       <c r="N43" t="n">
-        <v>926.0132678243855</v>
+        <v>158.1374513309094</v>
       </c>
       <c r="O43" t="n">
-        <v>959.1896830829627</v>
+        <v>191.3138665894865</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="Q43" t="n">
-        <v>937.2735990160247</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="R43" t="n">
-        <v>937.2735990160247</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="S43" t="n">
-        <v>937.2735990160247</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="T43" t="n">
-        <v>937.2735990160247</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="U43" t="n">
-        <v>937.2735990160247</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="V43" t="n">
-        <v>937.2735990160247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>937.2735990160247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>937.2735990160247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>937.2735990160247</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>91.26104609825586</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
         <v>19.28114311021272</v>
@@ -7658,13 +7658,13 @@
         <v>580.7013275441935</v>
       </c>
       <c r="N44" t="n">
-        <v>811.4259675091522</v>
+        <v>811.4259675091521</v>
       </c>
       <c r="O44" t="n">
-        <v>849.1931257913208</v>
+        <v>854.3539241088114</v>
       </c>
       <c r="P44" t="n">
-        <v>958.8963571931456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
         <v>964.0571555106362</v>
@@ -7682,16 +7682,16 @@
         <v>821.6073760305561</v>
       </c>
       <c r="V44" t="n">
-        <v>578.158599386456</v>
+        <v>821.6073760305561</v>
       </c>
       <c r="W44" t="n">
-        <v>578.158599386456</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>334.7098227423559</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>334.7098227423559</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.6897102588255</v>
+        <v>623.8378057417467</v>
       </c>
       <c r="C45" t="n">
-        <v>412.7330320712958</v>
+        <v>623.8378057417467</v>
       </c>
       <c r="D45" t="n">
-        <v>412.7330320712958</v>
+        <v>623.8378057417467</v>
       </c>
       <c r="E45" t="n">
-        <v>253.4955770658403</v>
+        <v>464.6003507362912</v>
       </c>
       <c r="F45" t="n">
-        <v>106.9610190927253</v>
+        <v>318.0657927631762</v>
       </c>
       <c r="G45" t="n">
-        <v>106.9610190927253</v>
+        <v>179.4110569917224</v>
       </c>
       <c r="H45" t="n">
-        <v>106.9610190927253</v>
+        <v>66.77678719026333</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>25.58776342720963</v>
       </c>
       <c r="K45" t="n">
-        <v>51.36059754670032</v>
+        <v>162.9876251674723</v>
       </c>
       <c r="L45" t="n">
-        <v>289.9647435355828</v>
+        <v>401.5917711563548</v>
       </c>
       <c r="M45" t="n">
-        <v>528.5688895244652</v>
+        <v>640.1959171452372</v>
       </c>
       <c r="N45" t="n">
-        <v>528.5688895244652</v>
+        <v>767.1730355133477</v>
       </c>
       <c r="O45" t="n">
         <v>767.1730355133477</v>
@@ -7752,25 +7752,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>792.0531427618148</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>792.0531427618148</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>792.0531427618148</v>
       </c>
       <c r="V45" t="n">
-        <v>728.9050472788936</v>
+        <v>792.0531427618148</v>
       </c>
       <c r="W45" t="n">
-        <v>728.9050472788936</v>
+        <v>792.0531427618148</v>
       </c>
       <c r="X45" t="n">
-        <v>728.9050472788936</v>
+        <v>792.0531427618148</v>
       </c>
       <c r="Y45" t="n">
-        <v>728.9050472788936</v>
+        <v>792.0531427618148</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>823.7663357724276</v>
+        <v>55.89051927895143</v>
       </c>
       <c r="M46" t="n">
-        <v>872.7549130235691</v>
+        <v>104.8790965300929</v>
       </c>
       <c r="N46" t="n">
-        <v>926.0132678243855</v>
+        <v>158.1374513309094</v>
       </c>
       <c r="O46" t="n">
-        <v>959.1896830829627</v>
+        <v>191.3138665894865</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="R46" t="n">
-        <v>787.8411972643944</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="S46" t="n">
-        <v>787.156959603689</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="T46" t="n">
-        <v>787.156959603689</v>
+        <v>196.1813390171601</v>
       </c>
       <c r="U46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>787.156959603689</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,7 +8073,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8690,25 +8690,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>303.8949993325101</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>446.6392077481595</v>
+        <v>446.6392077481594</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>360.5497680240908</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>210.9873633211545</v>
       </c>
       <c r="Q11" t="n">
-        <v>207.1020630664799</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>122.1984598562864</v>
+        <v>363.2127487339455</v>
       </c>
       <c r="M12" t="n">
-        <v>364.0617357077541</v>
+        <v>251.307162353439</v>
       </c>
       <c r="N12" t="n">
-        <v>352.7642487026583</v>
+        <v>352.7642487026582</v>
       </c>
       <c r="O12" t="n">
-        <v>365.687907565213</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.7696146236426</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8939,13 +8939,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>244.5254955803379</v>
+        <v>360.5497680240908</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,19 +9012,19 @@
         <v>363.2127487339455</v>
       </c>
       <c r="M15" t="n">
-        <v>364.0617357077541</v>
+        <v>171.5959999114471</v>
       </c>
       <c r="N15" t="n">
-        <v>204.2385585053159</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O15" t="n">
         <v>365.687907565213</v>
       </c>
       <c r="P15" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599045</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>123.047446830095</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N18" t="n">
-        <v>263.6455160524019</v>
+        <v>256.6777029392219</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,13 +9480,13 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K21" t="n">
-        <v>198.7711372769571</v>
+        <v>146.5746030901478</v>
       </c>
       <c r="L21" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>399.2039605324505</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N21" t="n">
         <v>387.9064735273547</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>399.2039605324505</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N24" t="n">
-        <v>387.9064735273547</v>
+        <v>263.6455160524017</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>136.5441990361994</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K27" t="n">
-        <v>149.0021003118938</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>399.2039605324504</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N27" t="n">
-        <v>387.9064735273547</v>
+        <v>349.7270020469157</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>130.3661252938572</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>195.2920992522432</v>
       </c>
       <c r="M30" t="n">
-        <v>274.9430030574975</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N30" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K33" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M33" t="n">
-        <v>399.2039605324505</v>
+        <v>253.7986983548369</v>
       </c>
       <c r="N33" t="n">
         <v>387.9064735273547</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>136.5441990361994</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>142.6317767593717</v>
       </c>
       <c r="L36" t="n">
-        <v>175.6660461607827</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>399.2039605324505</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N36" t="n">
         <v>387.9064735273547</v>
@@ -10683,7 +10683,7 @@
         <v>119.5899201578276</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714825</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10905,19 +10905,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>169.2957226082606</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>399.2039605324505</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N39" t="n">
-        <v>387.9064735273547</v>
+        <v>256.6777029392219</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P39" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>446.6392077481595</v>
+        <v>437.5418983942069</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,10 +11075,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>307.4884712241052</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>363.2127487339455</v>
       </c>
       <c r="M42" t="n">
-        <v>364.0617357077541</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N42" t="n">
-        <v>111.7499598249992</v>
+        <v>240.0096753483432</v>
       </c>
       <c r="O42" t="n">
         <v>365.687907565213</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>156.3992910711204</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11309,13 +11309,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>244.5254955803377</v>
+        <v>249.7384231737627</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664799</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>158.0809872107856</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>363.2127487339455</v>
@@ -11385,10 +11385,10 @@
         <v>364.0617357077541</v>
       </c>
       <c r="N45" t="n">
-        <v>111.7499598249992</v>
+        <v>240.0096753483432</v>
       </c>
       <c r="O45" t="n">
-        <v>365.687907565213</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22547,22 +22547,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>347.4314726443769</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22677,10 +22677,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22692,7 +22692,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,10 +22744,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22781,28 +22781,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22832,7 +22832,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>207.2105735132092</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22863,13 +22863,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,13 +22878,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>44.10098023643013</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,19 +22911,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>48.22464939976187</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23002,7 +23002,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23018,10 +23018,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>174.0429600055611</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23097,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>26.5151993764422</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23151,16 +23151,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>131.1259181763288</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23258,16 +23258,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D11" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.1619485273195</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>134.5517365682351</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
         <v>222.4795457699687</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,25 +23337,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>23.11879786519117</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>199.8611009721718</v>
@@ -23394,16 +23394,16 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>120.2262773527801</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
-        <v>153.551289182031</v>
+        <v>82.24660231436347</v>
       </c>
       <c r="J13" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>80.19643759900799</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
         <v>222.9160118599466</v>
@@ -23501,16 +23501,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>374.6931065464655</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.1476596496604</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H14" t="n">
-        <v>97.01865801664178</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3343897888113</v>
+        <v>10.3201009111522</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>360.4659320225669</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23571,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>28.55568591860987</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.94607035072023</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
         <v>225.9364262421938</v>
@@ -23671,10 +23671,10 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I16" t="n">
-        <v>74.22617876297153</v>
+        <v>82.24660231436347</v>
       </c>
       <c r="J16" t="n">
-        <v>88.89425643449839</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R16" t="n">
         <v>174.4537986637794</v>
@@ -23738,13 +23738,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>105.7738563699063</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F17" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>171.9232912582848</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H17" t="n">
         <v>338.0329468943008</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>126.4924434094345</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="18">
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23826,10 +23826,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,7 +23859,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>153.7000443999462</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T18" t="n">
         <v>199.8611009721718</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>15.19389245487775</v>
       </c>
     </row>
     <row r="19">
@@ -23905,7 +23905,7 @@
         <v>167.9278262653587</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>153.551289182031</v>
@@ -23938,10 +23938,10 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S19" t="n">
-        <v>47.78481791206877</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T19" t="n">
-        <v>227.6757534850358</v>
+        <v>214.2102436350351</v>
       </c>
       <c r="U19" t="n">
         <v>286.3155846423218</v>
@@ -23969,19 +23969,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>209.3825482548655</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H20" t="n">
         <v>338.0329468943008</v>
@@ -24017,19 +24017,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>78.7763410290983</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>59.83662662250134</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24096,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>18.26040084421163</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24184,10 +24184,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V22" t="n">
-        <v>77.00644937595015</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,19 +24203,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C23" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>111.4443843516481</v>
       </c>
       <c r="E23" t="n">
-        <v>105.7738563699063</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F23" t="n">
-        <v>163.6373884726768</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G23" t="n">
         <v>415.1619485273195</v>
@@ -24263,7 +24263,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V23" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>24.10415388719753</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>191.8964151475858</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24418,13 +24418,13 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U25" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24449,13 +24449,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G26" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H26" t="n">
         <v>338.0329468943008</v>
@@ -24497,19 +24497,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>230.5752782897452</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W26" t="n">
-        <v>73.08445501505759</v>
+        <v>328.481857218347</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>119.4953648864649</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24537,10 +24537,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H27" t="n">
-        <v>80.89575293986978</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24579,7 +24579,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24646,16 +24646,16 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S28" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206875</v>
       </c>
       <c r="T28" t="n">
         <v>227.6757534850358</v>
       </c>
       <c r="U28" t="n">
-        <v>285.6381893582233</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>89.11637806865212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G29" t="n">
         <v>415.1619485273195</v>
@@ -24725,19 +24725,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>205.8118405263978</v>
+        <v>103.5984649426426</v>
       </c>
       <c r="T29" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U29" t="n">
-        <v>8.095732519776732</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>110.0814249536982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,13 +24762,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>126.7438947608652</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>16.74398910091783</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S30" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24886,7 +24886,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S31" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206875</v>
       </c>
       <c r="T31" t="n">
         <v>227.6757534850358</v>
@@ -24895,7 +24895,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V31" t="n">
-        <v>77.00644937595013</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24926,16 +24926,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>163.6373884726768</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.1619485273195</v>
       </c>
       <c r="H32" t="n">
-        <v>61.87643319194535</v>
+        <v>299.842411742912</v>
       </c>
       <c r="I32" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>73.08445501505753</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X32" t="n">
-        <v>93.57458697611355</v>
+        <v>93.57458697611361</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536982</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I33" t="n">
-        <v>9.06016453503446</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T33" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>50.17947915721956</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R34" t="n">
         <v>174.4537986637794</v>
@@ -25129,13 +25129,13 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>192.2656372718196</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D35" t="n">
-        <v>111.4443843516484</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25172,7 +25172,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I35" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25202,25 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S35" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3343897888113</v>
+        <v>142.7991814614649</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505759</v>
       </c>
       <c r="X35" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25251,7 +25251,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,13 +25281,13 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T36" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U36" t="n">
-        <v>196.1561734063488</v>
+        <v>7.182801852692791</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,7 +25296,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>4.700786234059422</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>50.57846144115928</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E38" t="n">
-        <v>138.6917128032271</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G38" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H38" t="n">
-        <v>338.0329468943008</v>
+        <v>94.79428962526615</v>
       </c>
       <c r="I38" t="n">
         <v>205.0481221176458</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25488,7 +25488,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25524,7 +25524,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U39" t="n">
-        <v>106.4999626692548</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,10 +25533,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>134.613588917013</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.19643759900802</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S40" t="n">
         <v>222.9160118599466</v>
@@ -25606,7 +25606,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595013</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25628,22 +25628,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.1619485273195</v>
+        <v>202.8765628838773</v>
       </c>
       <c r="H41" t="n">
-        <v>248.2380998284477</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I41" t="n">
         <v>205.0481221176458</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S41" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U41" t="n">
         <v>251.3343897888113</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25710,19 +25710,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>86.80307722268741</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T42" t="n">
-        <v>149.8034057036189</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9364262421938</v>
+        <v>85.0244917967614</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.35811195344107</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R43" t="n">
         <v>174.4537986637794</v>
@@ -25843,7 +25843,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595013</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,16 +25862,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>294.0127878128449</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25922,16 +25922,16 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>277.9808647592503</v>
       </c>
       <c r="X44" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25944,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>26.23138758266137</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25956,13 +25956,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>39.78238958343731</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,7 +25992,7 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S45" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>199.8611009721718</v>
@@ -26001,7 +26001,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26068,16 +26068,16 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S46" t="n">
-        <v>222.2386165758483</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T46" t="n">
         <v>227.6757534850358</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490471.70869279</v>
+        <v>490471.7086927899</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490471.7086927899</v>
+        <v>490471.7086927901</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>520354.2281896696</v>
+        <v>520354.2281896697</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>520354.2281896696</v>
+        <v>520354.2281896697</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>520354.2281896696</v>
+        <v>520354.2281896697</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>520354.2281896697</v>
+        <v>520354.2281896696</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>520354.2281896697</v>
+        <v>520354.2281896696</v>
       </c>
     </row>
     <row r="14">
@@ -26320,19 +26320,19 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>135090.1251148562</v>
+        <v>135090.1251148563</v>
       </c>
       <c r="F2" t="n">
         <v>135090.1251148563</v>
       </c>
       <c r="G2" t="n">
-        <v>141745.4664845208</v>
+        <v>141745.4664845207</v>
       </c>
       <c r="H2" t="n">
         <v>141745.4664845208</v>
       </c>
       <c r="I2" t="n">
-        <v>141745.4664845207</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="J2" t="n">
         <v>141745.4664845208</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>28136.18592552744</v>
+        <v>28136.18592552745</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9631.956691076921</v>
+        <v>9631.956691076906</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39271.77947293871</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>39271.77947293872</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
-        <v>39271.77947293871</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="E4" t="n">
-        <v>37407.71454529359</v>
+        <v>40022.32952895875</v>
       </c>
       <c r="F4" t="n">
-        <v>37407.71454529359</v>
+        <v>40022.32952895875</v>
       </c>
       <c r="G4" t="n">
-        <v>39415.94178424669</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="H4" t="n">
-        <v>39415.94178424669</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="I4" t="n">
-        <v>39415.94178424669</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="J4" t="n">
-        <v>39415.94178424669</v>
+        <v>42169.81622231288</v>
       </c>
       <c r="K4" t="n">
-        <v>39415.94178424669</v>
+        <v>42169.81622231288</v>
       </c>
       <c r="L4" t="n">
-        <v>39415.94178424669</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="M4" t="n">
-        <v>39415.94178424669</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="N4" t="n">
-        <v>39415.94178424669</v>
+        <v>42169.81622231289</v>
       </c>
       <c r="O4" t="n">
-        <v>37407.71454529359</v>
+        <v>40022.32952895875</v>
       </c>
       <c r="P4" t="n">
-        <v>37407.71454529359</v>
+        <v>40022.32952895875</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26482,13 @@
         <v>15417.1322474386</v>
       </c>
       <c r="G5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="H5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="I5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="J5" t="n">
         <v>17553.77951678014</v>
@@ -26497,13 +26497,13 @@
         <v>17553.77951678014</v>
       </c>
       <c r="L5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="M5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="N5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="O5" t="n">
         <v>15417.1322474386</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35393.94174318223</v>
+        <v>-38139.58762613966</v>
       </c>
       <c r="C6" t="n">
-        <v>45375.48978836553</v>
+        <v>42629.84390540809</v>
       </c>
       <c r="D6" t="n">
-        <v>45375.48978836556</v>
+        <v>42629.84390540812</v>
       </c>
       <c r="E6" t="n">
-        <v>54129.09239659658</v>
+        <v>51514.47741293145</v>
       </c>
       <c r="F6" t="n">
-        <v>82265.27832212407</v>
+        <v>79650.66333845892</v>
       </c>
       <c r="G6" t="n">
-        <v>75143.78849241702</v>
+        <v>72389.91405435081</v>
       </c>
       <c r="H6" t="n">
-        <v>84775.74518349394</v>
+        <v>82021.87074542773</v>
       </c>
       <c r="I6" t="n">
-        <v>84775.74518349388</v>
+        <v>82021.87074542776</v>
       </c>
       <c r="J6" t="n">
-        <v>21715.80258438775</v>
+        <v>18961.92814632159</v>
       </c>
       <c r="K6" t="n">
-        <v>84775.74518349397</v>
+        <v>82021.87074542773</v>
       </c>
       <c r="L6" t="n">
-        <v>84775.74518349391</v>
+        <v>82021.87074542776</v>
       </c>
       <c r="M6" t="n">
-        <v>84775.74518349394</v>
+        <v>82021.87074542773</v>
       </c>
       <c r="N6" t="n">
-        <v>84775.74518349394</v>
+        <v>82021.87074542773</v>
       </c>
       <c r="O6" t="n">
-        <v>82265.27832212407</v>
+        <v>79650.66333845892</v>
       </c>
       <c r="P6" t="n">
-        <v>82265.2783221241</v>
+        <v>79650.66333845898</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
         <v>35.02126071912532</v>
@@ -26777,7 +26777,7 @@
         <v>35.02126071912532</v>
       </c>
       <c r="P3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912532</v>
       </c>
     </row>
     <row r="4">
@@ -26802,13 +26802,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="J4" t="n">
         <v>276.1565137023554</v>
@@ -26817,13 +26817,13 @@
         <v>276.1565137023554</v>
       </c>
       <c r="L4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="M4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O4" t="n">
         <v>241.0142888776591</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31756,16 +31756,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760118</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>17.90888720884598</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L11" t="n">
-        <v>22.21755819470701</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
         <v>24.72131435677232</v>
@@ -31783,16 +31783,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870377</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S11" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520186</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I12" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779988</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K12" t="n">
         <v>12.16394109335884</v>
@@ -31850,7 +31850,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
         <v>17.92262575689049</v>
@@ -31859,19 +31859,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164373</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263568</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S12" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3036277226497751</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008303</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623702</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170844</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948817</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394047</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938411</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587923</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390062</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S13" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
         <v>0.2698359432457196</v>
@@ -34363,16 +34363,16 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I44" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884598</v>
       </c>
       <c r="L44" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470701</v>
       </c>
       <c r="M44" t="n">
         <v>24.72131435677232</v>
@@ -34390,16 +34390,16 @@
         <v>15.20362680796963</v>
       </c>
       <c r="R44" t="n">
-        <v>8.843836255870379</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S44" t="n">
         <v>3.208229059847512</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I45" t="n">
         <v>2.593555628727678</v>
       </c>
       <c r="J45" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K45" t="n">
         <v>12.16394109335884</v>
@@ -34457,7 +34457,7 @@
         <v>19.0865870919233</v>
       </c>
       <c r="N45" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833408</v>
       </c>
       <c r="O45" t="n">
         <v>17.92262575689049</v>
@@ -34466,19 +34466,19 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R45" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S45" t="n">
         <v>1.399198482504676</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497751</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,43 +34515,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I46" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227321</v>
       </c>
       <c r="J46" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K46" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L46" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M46" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N46" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O46" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P46" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R46" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S46" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T46" t="n">
         <v>0.2698359432457196</v>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,10 +34781,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,7 +34793,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>217.7067518141195</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>121.9644487350302</v>
+        <v>101.7140354963755</v>
       </c>
       <c r="L11" t="n">
         <v>204.1123577751702</v>
@@ -35422,7 +35422,7 @@
         <v>233.0551918837966</v>
       </c>
       <c r="O11" t="n">
-        <v>154.1729171732163</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>128.2597155233439</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.40348932978545</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831899</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35659,13 +35659,13 @@
         <v>233.0551918837966</v>
       </c>
       <c r="O14" t="n">
-        <v>38.14864472946331</v>
+        <v>154.1729171732163</v>
       </c>
       <c r="P14" t="n">
-        <v>110.8113448503282</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424821</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K15" t="n">
         <v>138.7877391315784</v>
@@ -35732,19 +35732,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>48.54855308135208</v>
       </c>
       <c r="N15" t="n">
-        <v>92.48859868031664</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424821</v>
+        <v>5.212927593424635</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N18" t="n">
-        <v>151.8955562274027</v>
+        <v>144.9277431142227</v>
       </c>
       <c r="O18" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>198.8728484821096</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>73.09363939595693</v>
+        <v>20.89710520914766</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M21" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O21" t="n">
         <v>269.1887005891756</v>
@@ -36218,7 +36218,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>6.370323552522131</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L24" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M24" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>276.1565137023555</v>
+        <v>151.8955562274025</v>
       </c>
       <c r="O24" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P24" t="n">
-        <v>16.95427887837174</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>23.32460243089366</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L27" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M27" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>276.1565137023554</v>
+        <v>237.9770422219165</v>
       </c>
       <c r="O27" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>6.370323552522131</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>248.6418854471727</v>
+        <v>73.09363939595681</v>
       </c>
       <c r="M30" t="n">
-        <v>151.8955562274025</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O30" t="n">
         <v>269.1887005891756</v>
@@ -36929,7 +36929,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q30" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.370323552522131</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L33" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>276.1565137023555</v>
+        <v>130.7512515247419</v>
       </c>
       <c r="N33" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O33" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P33" t="n">
-        <v>16.95427887837174</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>121.9644487350304</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L35" t="n">
         <v>204.1123577751702</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K36" t="n">
-        <v>138.7877391315784</v>
+        <v>16.95427887837153</v>
       </c>
       <c r="L36" t="n">
-        <v>53.46758630449623</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M36" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N36" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O36" t="n">
         <v>269.1887005891756</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P38" t="n">
-        <v>110.8113448503282</v>
+        <v>110.811344850328</v>
       </c>
       <c r="Q38" t="n">
         <v>5.212927593424821</v>
@@ -37625,19 +37625,19 @@
         <v>138.7877391315784</v>
       </c>
       <c r="L39" t="n">
-        <v>47.09726275197413</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M39" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N39" t="n">
-        <v>276.1565137023555</v>
+        <v>144.9277431142227</v>
       </c>
       <c r="O39" t="n">
-        <v>269.1887005891756</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q39" t="n">
         <v>79.71116244199196</v>
@@ -37786,7 +37786,7 @@
         <v>204.1123577751702</v>
       </c>
       <c r="M41" t="n">
-        <v>241.0142888776591</v>
+        <v>231.9169795237065</v>
       </c>
       <c r="N41" t="n">
         <v>233.0551918837966</v>
@@ -37795,10 +37795,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P41" t="n">
-        <v>96.50110790295069</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.212927593424821</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>6.370323552522131</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>128.2597155233439</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q42" t="n">
-        <v>26.03316577726329</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,13 +38029,13 @@
         <v>233.0551918837966</v>
       </c>
       <c r="O44" t="n">
-        <v>38.1486447294632</v>
+        <v>43.36157232288818</v>
       </c>
       <c r="P44" t="n">
         <v>110.8113448503282</v>
       </c>
       <c r="Q44" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K45" t="n">
-        <v>32.40348932978545</v>
+        <v>138.7877391315784</v>
       </c>
       <c r="L45" t="n">
         <v>241.0142888776591</v>
@@ -38105,10 +38105,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>128.2597155233439</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>198.8728484821096</v>
@@ -38190,7 +38190,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P46" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831899</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>393296.341412486</v>
+        <v>454131.8163241862</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554244</v>
+        <v>337002.243055424</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8574109.934192413</v>
+        <v>8574109.934192415</v>
       </c>
     </row>
     <row r="11">
@@ -661,67 +661,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>97.34871926419866</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E5" t="n">
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>32.03677880122241</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>74.35959925938297</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>8.227780754748551</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,7 +1277,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>209.5972717395343</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>338.9268827990066</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>129.0036366911897</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>190.271393580297</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>100.2529734611853</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>165.3077787948329</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>13.72101765531078</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>162.5776147681367</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>78.14109718068133</v>
       </c>
       <c r="E17" t="n">
-        <v>90.7944658248523</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.4435927426899</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>16.91544265059197</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>115.2511029009959</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>213.9414281533258</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>76.37590626022399</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>278.9270494795691</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>128.9679737467408</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.1332020905459</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>176.2716469583943</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>199.3355115125533</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>35.91413898973432</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>331.5946881601785</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>59.92209716456423</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>141.55483850657</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>84.84244993117463</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>92.81663595486189</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>355.5467565582661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>94.63926978364034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>343.5627205851364</v>
+        <v>146.1150667156493</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3286,7 +3286,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>117.1560086992565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>338.7976832178812</v>
       </c>
       <c r="F38" t="n">
-        <v>192.7147455243193</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>120.4120358099645</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>153.8100533453329</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>410.7686770038633</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>163.8950372953905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>123.451488368881</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>139.3733281349271</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>321.5584859445101</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>61.28737103419851</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>65.23699284296821</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>129.6781866221431</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C2" t="n">
-        <v>749.627473042513</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="D2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.04605772994853</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C3" t="n">
-        <v>55.04605772994853</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D3" t="n">
-        <v>55.04605772994853</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E3" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
         <v>20.03527576299844</v>
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>55.04605772994853</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>55.04605772994853</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.04605772994853</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="4">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C5" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>226.0945550188371</v>
+        <v>478.9995557818393</v>
       </c>
       <c r="C6" t="n">
-        <v>51.64152573771011</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D6" t="n">
-        <v>51.64152573771011</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>461.2466632505798</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>226.0945550188371</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>226.0945550188371</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X6" t="n">
-        <v>226.0945550188371</v>
+        <v>686.7598545467931</v>
       </c>
       <c r="Y6" t="n">
-        <v>226.0945550188371</v>
+        <v>478.9995557818393</v>
       </c>
     </row>
     <row r="7">
@@ -4749,7 +4749,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
         <v>19.28114311021272</v>
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5264424227252</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5264424227252</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>27.59203276147389</v>
       </c>
       <c r="E9" t="n">
         <v>19.28114311021272</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>678.3417187247995</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
-        <v>434.8929420806995</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>176.5264424227252</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1838.661061815299</v>
+        <v>1134.473993239632</v>
       </c>
       <c r="C11" t="n">
-        <v>1626.94664591678</v>
+        <v>1134.473993239632</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>1134.473993239632</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T11" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V11" t="n">
-        <v>1838.661061815299</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W11" t="n">
-        <v>1838.661061815299</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X11" t="n">
-        <v>1838.661061815299</v>
+        <v>1521.073833303754</v>
       </c>
       <c r="Y11" t="n">
-        <v>1838.661061815299</v>
+        <v>1521.073833303754</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598705</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T13" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U13" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V13" t="n">
-        <v>246.1363086691493</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W13" t="n">
-        <v>246.1363086691493</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084168</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084168</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1112.426648284105</v>
+        <v>631.9064409481871</v>
       </c>
       <c r="C14" t="n">
-        <v>1112.426648284105</v>
+        <v>631.9064409481871</v>
       </c>
       <c r="D14" t="n">
-        <v>1011.161018525332</v>
+        <v>631.9064409481871</v>
       </c>
       <c r="E14" t="n">
-        <v>625.3727659270879</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U14" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V14" t="n">
-        <v>1838.661061815299</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W14" t="n">
-        <v>1485.892406545185</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X14" t="n">
-        <v>1112.426648284105</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y14" t="n">
-        <v>1112.426648284105</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N15" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P15" t="n">
         <v>2568.06040664989</v>
@@ -5396,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259434</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259434</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>67.80259561360765</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>67.80259561360765</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>67.80259561360765</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>67.80259561360765</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U16" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V16" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W16" t="n">
-        <v>274.7355609638946</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="X16" t="n">
-        <v>274.7355609638946</v>
+        <v>438.7118141694735</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259434</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>974.6042763530502</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C17" t="n">
-        <v>974.6042763530502</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="D17" t="n">
-        <v>974.6042763530502</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5518,16 +5518,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>1364.743608328862</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X17" t="n">
-        <v>1364.743608328862</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y17" t="n">
-        <v>974.6042763530502</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="18">
@@ -5576,19 +5576,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5609,16 +5609,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073963</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C19" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D19" t="n">
-        <v>348.7460229006679</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E19" t="n">
         <v>200.8329293182748</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>513.8405610245972</v>
+        <v>711.0426784987656</v>
       </c>
       <c r="V19" t="n">
-        <v>513.8405610245972</v>
+        <v>711.0426784987656</v>
       </c>
       <c r="W19" t="n">
-        <v>513.8405610245972</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="X19" t="n">
-        <v>513.8405610245972</v>
+        <v>421.6255084618049</v>
       </c>
       <c r="Y19" t="n">
-        <v>513.8405610245972</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1995.909162857192</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="C20" t="n">
-        <v>1626.94664591678</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5782,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2443.387305656314</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2112.324418312743</v>
+        <v>2262.411971310158</v>
       </c>
       <c r="W20" t="n">
-        <v>2112.324418312743</v>
+        <v>1909.643316040044</v>
       </c>
       <c r="X20" t="n">
-        <v>2112.324418312743</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="Y20" t="n">
-        <v>2112.324418312743</v>
+        <v>1536.177557778964</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5831,43 +5831,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.9553738610024</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C22" t="n">
-        <v>438.9553738610024</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D22" t="n">
-        <v>288.8387344486666</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>288.8387344486666</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610024</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W22" t="n">
-        <v>438.9553738610024</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X22" t="n">
-        <v>438.9553738610024</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y22" t="n">
-        <v>438.9553738610024</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.6874762441716</v>
+        <v>1297.230130518034</v>
       </c>
       <c r="C23" t="n">
-        <v>335.6874762441716</v>
+        <v>928.2676135776226</v>
       </c>
       <c r="D23" t="n">
-        <v>335.6874762441716</v>
+        <v>570.0019149708721</v>
       </c>
       <c r="E23" t="n">
-        <v>335.6874762441716</v>
+        <v>184.2136623726279</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>184.2136623726279</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M23" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N23" t="n">
         <v>1836.345445977174</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W23" t="n">
-        <v>1485.892406545185</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X23" t="n">
-        <v>1112.426648284105</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y23" t="n">
-        <v>722.2873163082934</v>
+        <v>1683.829970582156</v>
       </c>
     </row>
     <row r="24">
@@ -6044,73 +6044,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6168,31 +6168,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V25" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1108.365917331524</v>
+        <v>976.0491016702019</v>
       </c>
       <c r="C26" t="n">
-        <v>739.4034003911122</v>
+        <v>976.0491016702019</v>
       </c>
       <c r="D26" t="n">
-        <v>381.1377017843616</v>
+        <v>617.7834030634515</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>231.9951504652072</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>231.9951504652072</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>231.9951504652072</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6226,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X26" t="n">
-        <v>1108.365917331524</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y26" t="n">
-        <v>1108.365917331524</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="27">
@@ -6329,7 +6329,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073964</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>325.6879402326643</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C28" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.3364050629041</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1645.450628940881</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="C29" t="n">
-        <v>1276.48811200047</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D29" t="n">
-        <v>918.2224133937191</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E29" t="n">
-        <v>532.4341607954748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>532.4341607954748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>114.4703526936617</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>114.4703526936617</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V29" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W29" t="n">
-        <v>2035.589960916693</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X29" t="n">
-        <v>2035.589960916693</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y29" t="n">
-        <v>1645.450628940881</v>
+        <v>1576.102522773261</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6542,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8405610245969</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8405610245969</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8405610245969</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E31" t="n">
-        <v>365.9274674422038</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8405610245969</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U31" t="n">
-        <v>513.8405610245969</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V31" t="n">
-        <v>513.8405610245969</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W31" t="n">
-        <v>513.8405610245969</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X31" t="n">
-        <v>513.8405610245969</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y31" t="n">
-        <v>513.8405610245969</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.945354755378</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082162</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y32" t="n">
-        <v>1964.5451948195</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1504.400259589023</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="C35" t="n">
-        <v>1504.400259589023</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="D35" t="n">
-        <v>1146.134560982272</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="E35" t="n">
-        <v>1146.134560982272</v>
+        <v>1100.158462371539</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6967,22 +6967,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V35" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W35" t="n">
-        <v>1894.539591564834</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X35" t="n">
-        <v>1894.539591564834</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y35" t="n">
-        <v>1504.400259589023</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
         <v>2525.076107152626</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>609.7895814799127</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="U37" t="n">
-        <v>598.0446400632119</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1779.584617183058</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="C38" t="n">
-        <v>1410.622100242646</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="D38" t="n">
-        <v>1052.356401635896</v>
+        <v>1225.112576750049</v>
       </c>
       <c r="E38" t="n">
-        <v>666.5681490376517</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U38" t="n">
-        <v>2169.72394915887</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V38" t="n">
-        <v>2169.72394915887</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W38" t="n">
-        <v>2169.72394915887</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="X38" t="n">
-        <v>2169.72394915887</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="Y38" t="n">
-        <v>1779.584617183058</v>
+        <v>1583.3782753568</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>325.6879402326643</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C40" t="n">
-        <v>204.0596212327002</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>572.7652939586234</v>
       </c>
       <c r="Y40" t="n">
-        <v>507.3364050629041</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2476.569858826099</v>
+        <v>1154.32125595057</v>
       </c>
       <c r="C41" t="n">
-        <v>2107.607341885688</v>
+        <v>1154.32125595057</v>
       </c>
       <c r="D41" t="n">
-        <v>1749.341643278937</v>
+        <v>796.0555573438196</v>
       </c>
       <c r="E41" t="n">
-        <v>1363.553390680693</v>
+        <v>796.0555573438196</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>796.0555573438196</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548716</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X41" t="n">
-        <v>2642.120401548716</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.569858826099</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571351</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>348.7460229006679</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C43" t="n">
-        <v>348.7460229006679</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D43" t="n">
-        <v>348.7460229006679</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7578,43 +7578,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>603.4305111065548</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T43" t="n">
-        <v>603.4305111065548</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U43" t="n">
-        <v>603.4305111065548</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V43" t="n">
-        <v>348.7460229006679</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W43" t="n">
-        <v>348.7460229006679</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X43" t="n">
-        <v>348.7460229006679</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y43" t="n">
-        <v>348.7460229006679</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1902.75190621448</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C44" t="n">
-        <v>1533.789389274068</v>
+        <v>1270.889273203046</v>
       </c>
       <c r="D44" t="n">
-        <v>1175.523690667317</v>
+        <v>912.6235745962956</v>
       </c>
       <c r="E44" t="n">
-        <v>789.7354380690731</v>
+        <v>526.8353219980513</v>
       </c>
       <c r="F44" t="n">
-        <v>378.7495332794655</v>
+        <v>115.8494172084438</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>115.8494172084438</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533133</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733119</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.351746278601</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X44" t="n">
-        <v>2289.351746278601</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y44" t="n">
-        <v>2289.351746278601</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7766,10 +7766,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>369.8327295799424</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C46" t="n">
-        <v>369.8327295799424</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D46" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
         <v>222.942782082032</v>
@@ -7815,43 +7815,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064347</v>
+        <v>662.2330318397999</v>
       </c>
       <c r="T46" t="n">
-        <v>500.8207968750364</v>
+        <v>662.2330318397999</v>
       </c>
       <c r="U46" t="n">
-        <v>500.8207968750364</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="V46" t="n">
-        <v>500.8207968750364</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="W46" t="n">
-        <v>500.8207968750364</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="X46" t="n">
-        <v>500.8207968750364</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y46" t="n">
-        <v>369.8327295799424</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627883</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,7 +10673,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992659</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720728</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.6414676374707</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,22 +22549,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>351.4177255634863</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22597,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22606,10 +22606,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22631,10 +22631,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>50.09634630044009</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22643,7 +22643,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>77.57477008921587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22679,10 +22679,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22840,7 +22840,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22871,13 +22871,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>125.6083016541785</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>131.4133859440945</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22989,10 +22989,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23077,10 +23077,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823874</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23105,10 +23105,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>149.4172997006524</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,7 +23156,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23165,7 +23165,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>155.6756200314732</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>43.00348727325519</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>50.82834349074764</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>35.43826180874015</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>254.4300681594977</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>216.6225912774289</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,13 +23670,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>142.4498711864844</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23709,13 +23709,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>89.56002855569128</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,10 +23737,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>276.5419444400017</v>
       </c>
       <c r="E17" t="n">
-        <v>291.1359042474095</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.38838743924737</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>269.3664315913858</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>267.4827387624846</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>113.8108303168091</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>69.04514176270726</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,10 +24183,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>192.4108057479596</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>127.9489962621424</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>284.8161962740542</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24259,7 +24259,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>50.78177823929093</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>7.012336859473038</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,7 +24460,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>147.6511258059628</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>170.3955891659157</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.52911452950187</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24651,7 +24651,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24660,16 +24660,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>250.6088593468567</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>33.67820361082909</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>92.00921908029702</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>3.866209516361209</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>167.2951933926534</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>272.4562558161456</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.69118209778748</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629406</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25159,13 +25159,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>63.31332515657499</v>
+        <v>260.7609790260622</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>94.98953025076241</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,16 +25393,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>43.13268685438055</v>
       </c>
       <c r="F38" t="n">
-        <v>214.1613002173921</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>46.83478528866331</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>71.22505211275134</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3.015493016931657</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>222.3429013606631</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>88.69405058113787</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25845,7 +25845,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>79.21132521716771</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>92.22568407628489</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>262.6354017301587</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25924,13 +25924,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>146.9085461070507</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>88.90646672995172</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490471.7086927898</v>
+        <v>490471.7086927899</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190546</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190545</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>825001.5947190545</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190548</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>825001.5947190548</v>
+        <v>825001.5947190549</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>825001.5947190546</v>
+        <v>825001.5947190549</v>
       </c>
     </row>
   </sheetData>
@@ -26325,10 +26325,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="F2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.088012606</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
         <v>231322.0880126061</v>
@@ -26343,7 +26343,7 @@
         <v>231322.0880126062</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126061</v>
@@ -26352,7 +26352,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="O2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
         <v>231322.0880126061</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429962</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740582</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
+        <v>44802.6561755686</v>
+      </c>
+      <c r="F4" t="n">
         <v>44802.65617556861</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44802.6561755686</v>
       </c>
       <c r="G4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="H4" t="n">
+        <v>44802.65617556861</v>
+      </c>
+      <c r="I4" t="n">
         <v>44802.6561755686</v>
-      </c>
-      <c r="I4" t="n">
-        <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
         <v>44802.65617556861</v>
@@ -26450,16 +26450,16 @@
         <v>44802.65617556861</v>
       </c>
       <c r="M4" t="n">
+        <v>44802.6561755686</v>
+      </c>
+      <c r="N4" t="n">
         <v>44802.65617556861</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>44802.6561755686</v>
       </c>
-      <c r="O4" t="n">
-        <v>44802.65617556861</v>
-      </c>
       <c r="P4" t="n">
-        <v>44802.65617556859</v>
+        <v>44802.6561755686</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26499,19 +26499,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="O5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="O5" t="n">
-        <v>49231.47806340948</v>
-      </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50357.5982461801</v>
+        <v>-39361.38868814368</v>
       </c>
       <c r="C6" t="n">
-        <v>30411.83328536763</v>
+        <v>41408.04284340404</v>
       </c>
       <c r="D6" t="n">
-        <v>30411.83328536765</v>
+        <v>41408.04284340404</v>
       </c>
       <c r="E6" t="n">
-        <v>-301626.6340151873</v>
+        <v>-296165.0616439499</v>
       </c>
       <c r="F6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.112399046</v>
       </c>
       <c r="G6" t="n">
-        <v>131219.540027809</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="H6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="I6" t="n">
-        <v>131219.540027809</v>
+        <v>136681.1123990463</v>
       </c>
       <c r="J6" t="n">
-        <v>68159.59742870255</v>
+        <v>73621.16979993985</v>
       </c>
       <c r="K6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.1123990463</v>
       </c>
       <c r="L6" t="n">
-        <v>131219.5400278089</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="M6" t="n">
-        <v>23246.17935375062</v>
+        <v>28707.75172498805</v>
       </c>
       <c r="N6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="O6" t="n">
-        <v>131219.5400278086</v>
+        <v>136681.1123990461</v>
       </c>
       <c r="P6" t="n">
-        <v>131219.5400278088</v>
+        <v>136681.1123990461</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26767,19 +26767,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26810,7 +26810,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26819,16 +26819,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="O4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768968</v>
+        <v>433.2729838768963</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768967</v>
+        <v>433.2729838768964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N13" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N16" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34125,10 +34125,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34137,34 +34137,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34301,28 +34301,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,10 +34362,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34374,34 +34374,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34538,28 +34538,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N13" t="n">
         <v>148.370846145888</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N16" t="n">
         <v>148.370846145888</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K23" t="n">
         <v>297.2230414343419</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37393,16 +37393,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338904</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
         <v>146.3614835535656</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181301</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
         <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338904</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
         <v>146.3614835535656</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
